--- a/biology/Zoologie/Timothy_Abbott_Conrad/Timothy_Abbott_Conrad.xlsx
+++ b/biology/Zoologie/Timothy_Abbott_Conrad/Timothy_Abbott_Conrad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Timothy Abbott Conrad est un paléontologue et un géologue américain, né le 21 juin 1803 près de Trenton dans le New Jersey et mort le 9 août 1877 à Trenton.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la science et l’histoire naturelle grâce à des précepteurs. Il assiste son père, Solomon White Conrad, dans son imprimerie jusqu’à la mort de celui-ci en 1831.
 Il devient membre, en 1831, de l’Academy of Natural Sciences of Philadelphia et se spécialise sur les coquillages. Il fait alors carrière comme géologue et paléontologue pour le compte de l’État de New York.
